--- a/SPPSApi/Doc/Template/FS0603_OperHistory.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_OperHistory.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DEE78-C90A-48D7-ABC3-3FBF2FE7E9B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,11 +27,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作信息</t>
+    <t>包装工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -45,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,6 +103,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -141,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +186,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,6 +238,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,24 +430,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -411,6 +463,12 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -421,7 +479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -434,7 +492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SPPSApi/Doc/Template/FS0603_OperHistory.xlsx
+++ b/SPPSApi/Doc/Template/FS0603_OperHistory.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DEE78-C90A-48D7-ABC3-3FBF2FE7E9B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +47,18 @@
   </si>
   <si>
     <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +73,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +104,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -153,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,26 +221,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,23 +256,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,44 +431,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -479,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -492,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
